--- a/tests/files/db_specifications.xlsx
+++ b/tests/files/db_specifications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="75" windowWidth="19215" windowHeight="5865"/>
+    <workbookView xWindow="-15" yWindow="75" windowWidth="19215" windowHeight="5865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="357" r:id="rId1"/>
@@ -13,25 +13,25 @@
     <sheet name="ctrl" sheetId="346" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">インデックス定義!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル定義!$A$1:$V$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">外部キー制約定義!$A$1:$P$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">インデックス定義!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル定義!$A$1:$U$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">外部キー制約定義!$A$1:$R$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ctrl!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">インデックス定義!$A$1:$Q$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル定義!$A$1:$V$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">外部キー制約定義!$A$1:$P$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">インデックス定義!$A$1:$R$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル定義!$A$1:$U$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">外部キー制約定義!$A$1:$R$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">インデックス定義!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">テーブル定義!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">外部キー制約定義!$1:$1</definedName>
     <definedName name="X_形マスタ">OFFSET(ctrl!$A:$B, 1, 0, COUNTA(ctrl!$A:$A))</definedName>
     <definedName name="X_形一覧">OFFSET(ctrl!$A$1, 1, 0, COUNTA(ctrl!$A:$A), 1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
@@ -336,10 +336,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,6 +735,27 @@
   </si>
   <si>
     <t>access_key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照先スキーマ</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2147,38 +2164,38 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="19" customWidth="1"/>
     <col min="3" max="4" width="28.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="4.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.1640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="4.1640625" style="1"/>
+    <col min="9" max="11" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="4.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.1640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="43" customFormat="1" ht="24">
+    <row r="1" spans="1:21" s="43" customFormat="1" ht="24">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>7</v>
@@ -2199,30 +2216,27 @@
         <v>0</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="47" t="s">
+      <c r="L1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="67" t="s">
-        <v>51</v>
-      </c>
+      <c r="M1" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="68"/>
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
-    </row>
-    <row r="2" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U1" s="69"/>
+    </row>
+    <row r="2" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2234,8 +2248,8 @@
       <c r="I2" s="38"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -2243,39 +2257,38 @@
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-    </row>
-    <row r="3" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="31"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>94</v>
-      </c>
       <c r="F3" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="58"/>
       <c r="I3" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
@@ -2283,55 +2296,53 @@
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="30"/>
-    </row>
-    <row r="4" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="58">
         <v>40</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="57" t="s">
-        <v>97</v>
-      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="30"/>
-    </row>
-    <row r="5" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>8</v>
@@ -2340,12 +2351,12 @@
         <v>128</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="60"/>
       <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="57"/>
       <c r="P5" s="57"/>
@@ -2353,29 +2364,28 @@
       <c r="R5" s="57"/>
       <c r="S5" s="57"/>
       <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="30"/>
-    </row>
-    <row r="6" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>72</v>
-      </c>
       <c r="G6" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="59"/>
       <c r="J6" s="60"/>
       <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="57"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
@@ -2383,29 +2393,28 @@
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="30"/>
-    </row>
-    <row r="7" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="59"/>
       <c r="J7" s="60"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="57"/>
       <c r="O7" s="57"/>
       <c r="P7" s="57"/>
@@ -2413,10 +2422,9 @@
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="30"/>
-    </row>
-    <row r="8" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -2428,8 +2436,8 @@
       <c r="I8" s="59"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="57"/>
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
@@ -2437,39 +2445,38 @@
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="30"/>
-    </row>
-    <row r="9" spans="1:22" s="37" customFormat="1" ht="15.95" customHeight="1">
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:21" s="37" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="17"/>
       <c r="C9" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -2477,67 +2484,65 @@
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-    </row>
-    <row r="10" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="58">
         <v>40</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="57" t="s">
-        <v>97</v>
-      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="57"/>
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="G11" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
@@ -2545,31 +2550,30 @@
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="30"/>
-    </row>
-    <row r="12" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="31"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
@@ -2577,31 +2581,30 @@
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="30"/>
-    </row>
-    <row r="13" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="31"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="58"/>
       <c r="I13" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="60"/>
       <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
@@ -2609,31 +2612,30 @@
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="30"/>
-    </row>
-    <row r="14" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="31"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="57"/>
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
@@ -2641,29 +2643,28 @@
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="31"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>72</v>
-      </c>
       <c r="G15" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="59"/>
       <c r="J15" s="60"/>
       <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
@@ -2671,10 +2672,9 @@
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="30"/>
-    </row>
-    <row r="16" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="31"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -2686,8 +2686,8 @@
       <c r="I16" s="59"/>
       <c r="J16" s="60"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
@@ -2695,37 +2695,36 @@
       <c r="R16" s="57"/>
       <c r="S16" s="57"/>
       <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="30"/>
-    </row>
-    <row r="17" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="E17" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="54" t="s">
+      <c r="G17" s="56" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="57"/>
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
@@ -2733,31 +2732,30 @@
       <c r="R17" s="57"/>
       <c r="S17" s="57"/>
       <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="30"/>
-    </row>
-    <row r="18" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="31"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
@@ -2765,10 +2763,9 @@
       <c r="R18" s="57"/>
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="30"/>
-    </row>
-    <row r="19" spans="1:22" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U18" s="30"/>
+    </row>
+    <row r="19" spans="1:21" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="31"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -2780,8 +2777,8 @@
       <c r="I19" s="59"/>
       <c r="J19" s="60"/>
       <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
@@ -2789,11 +2786,11 @@
       <c r="R19" s="57"/>
       <c r="S19" s="57"/>
       <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="30"/>
+      <c r="U19" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V10">
+  <autoFilter ref="A1:U10">
+    <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
@@ -2801,10 +2798,9 @@
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="19" showButton="0"/>
-    <filterColumn colId="20" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="M1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2814,7 +2810,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;Lデータベース設計書&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -2827,260 +2823,284 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="64" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="66" customWidth="1"/>
-    <col min="7" max="8" width="18.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="4.1640625" style="53"/>
+    <col min="3" max="3" width="16" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="66" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="66" customWidth="1"/>
+    <col min="9" max="10" width="18.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="4.1640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1">
+    <row r="1" spans="1:20" ht="15.95" customHeight="1">
       <c r="A1" s="63"/>
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="K1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.95" customHeight="1">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.95" customHeight="1">
       <c r="A2" s="50"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="57"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="R2" s="53" t="str">
-        <f>IF(C2&lt;&gt;"", "fk_" &amp; MID(C2, 2, 999) &amp; "_01", "")</f>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="T2" s="53" t="str">
+        <f>IF(D2&lt;&gt;"", "fk_" &amp; MID(D2, 2, 999) &amp; "_01", "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="50"/>
       <c r="B3" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="E3" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="H3" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="I3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="J3" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
       <c r="K3" s="57"/>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="R3" s="53" t="str">
-        <f t="shared" ref="R3:R4" si="0">IF(C3&lt;&gt;"", "fk" &amp; MID(C3, 2, 999) &amp; "_01", "")</f>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="53" t="str">
+        <f t="shared" ref="T3:T4" si="0">IF(D3&lt;&gt;"", "fk" &amp; MID(D3, 2, 999) &amp; "_01", "")</f>
         <v>fk_image_01</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="50"/>
       <c r="B4" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="R4" s="53" t="str">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="50"/>
       <c r="B5" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="I5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>64</v>
+      </c>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="R5" s="53" t="str">
-        <f t="shared" ref="R5" si="1">IF(C5&lt;&gt;"", "fk" &amp; MID(C5, 2, 999) &amp; "_01", "")</f>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="T5" s="53" t="str">
+        <f t="shared" ref="T5" si="1">IF(D5&lt;&gt;"", "fk" &amp; MID(D5, 2, 999) &amp; "_01", "")</f>
         <v>fk_image_data_01</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="50"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.95" customHeight="1">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.95" customHeight="1">
       <c r="A7" s="50"/>
       <c r="B7" s="42"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="R7" s="53" t="str">
-        <f>IF(C7&lt;&gt;"", "fk" &amp; MID(C7, 2, 999) &amp; "_01", "")</f>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="53" t="str">
+        <f>IF(D7&lt;&gt;"", "fk" &amp; MID(D7, 2, 999) &amp; "_01", "")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.95" customHeight="1">
+    <row r="8" spans="1:20" ht="15.95" customHeight="1">
       <c r="A8" s="50"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="R8" s="53" t="str">
-        <f>IF(C8&lt;&gt;"", "fk" &amp; MID(C8, 2, 999) &amp; "_01", "")</f>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="T8" s="53" t="str">
+        <f>IF(D8&lt;&gt;"", "fk" &amp; MID(D8, 2, 999) &amp; "_01", "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P6">
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
+  <autoFilter ref="A1:R6">
+    <filterColumn colId="2"/>
+    <filterColumn colId="5"/>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="K1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J8">
       <formula1>"RESTRICT,CASCADE,SET NULL,NO ACTION"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;Lデータベース設計書&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -3093,12 +3113,12 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="15.95" customHeight="1"/>
@@ -3106,12 +3126,13 @@
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="4.1640625" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="4.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+    <row r="1" spans="1:18" ht="15.95" customHeight="1">
       <c r="A1" s="21"/>
       <c r="B1" s="14" t="s">
         <v>18</v>
@@ -3120,15 +3141,17 @@
         <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="70" t="s">
+        <v>52</v>
+      </c>
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
       <c r="J1" s="73"/>
@@ -3138,15 +3161,16 @@
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
       <c r="P1" s="73"/>
-      <c r="Q1" s="74"/>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="20"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -3157,23 +3181,24 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="41"/>
       <c r="B3" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -3184,15 +3209,16 @@
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="20"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -3203,23 +3229,24 @@
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="40"/>
-    </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="15.95" customHeight="1">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A5" s="24"/>
       <c r="B5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -3230,15 +3257,16 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="20"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -3249,15 +3277,16 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
-      <c r="Q6" s="40"/>
-    </row>
-    <row r="7" spans="1:17" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="20"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -3268,16 +3297,17 @@
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="G1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;Lデータベース設計書&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -3323,7 +3353,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="11"/>
       <c r="M3" t="s">
@@ -3353,7 +3383,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11"/>
       <c r="M7" t="s">
@@ -3368,13 +3398,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3392,7 +3422,7 @@
       </c>
       <c r="B11" s="11"/>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3422,7 +3452,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="11"/>
       <c r="M15" t="s">
@@ -3450,7 +3480,7 @@
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3474,7 +3504,7 @@
         <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3489,7 +3519,7 @@
       </c>
       <c r="B21" s="11"/>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12" thickBot="1">
@@ -3498,7 +3528,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="M23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
